--- a/z0bug_odoo/z0bug_odoo/testenv/product_template.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/product_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="177">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -187,13 +187,19 @@
     <t xml:space="preserve">FF</t>
   </si>
   <si>
-    <t xml:space="preserve">Prodotto Phi</t>
+    <t xml:space="preserve">Prodotto Phi (elettronico)</t>
   </si>
   <si>
     <t xml:space="preserve">4.68</t>
   </si>
   <si>
     <t xml:space="preserve">2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6ca</t>
   </si>
   <si>
     <t xml:space="preserve">0.3</t>
@@ -797,11 +803,11 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -812,8 +818,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="19.23"/>
@@ -1127,10 +1133,10 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>21</v>
@@ -1145,24 +1151,24 @@
         <v>23</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
@@ -1186,24 +1192,24 @@
         <v>23</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -1227,24 +1233,24 @@
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>18</v>
@@ -1268,24 +1274,24 @@
         <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
@@ -1309,18 +1315,18 @@
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>52</v>
@@ -1350,24 +1356,24 @@
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
@@ -1391,24 +1397,24 @@
         <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -1432,24 +1438,24 @@
         <v>23</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
@@ -1476,19 +1482,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -1512,24 +1518,24 @@
         <v>23</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
@@ -1553,24 +1559,24 @@
         <v>23</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
@@ -1594,27 +1600,27 @@
         <v>23</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -1635,28 +1641,28 @@
         <v>23</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="G21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1676,27 +1682,27 @@
         <v>23</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
@@ -1717,27 +1723,27 @@
         <v>23</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -1758,27 +1764,27 @@
         <v>23</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
@@ -1799,36 +1805,36 @@
         <v>23</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>22</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -1879,27 +1885,27 @@
         <v>23</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -1908,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>22</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -1959,27 +1965,27 @@
         <v>23</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
@@ -1988,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>22</v>
@@ -2003,22 +2009,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2027,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>23</v>
